--- a/варианты/proege/вариант7/22.xlsx
+++ b/варианты/proege/вариант7/22.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\дз2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B69CC2CC-EB0D-487A-9011-50B3C71D1594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PRO100 ЕГЭ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -57,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -233,7 +227,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -427,27 +421,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="38" max="38" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,26 +699,26 @@
       <c r="G7" s="4">
         <v>6</v>
       </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
+      <c r="R7" s="6">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6">
+        <v>1</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6">
+        <v>1</v>
+      </c>
+      <c r="V7" s="6">
+        <v>1</v>
+      </c>
+      <c r="W7" s="6">
         <v>1</v>
       </c>
       <c r="AL7" t="b">
-        <f>SUM(H7:AK7)=B7</f>
+        <f>SUM(N7:AK7)=B7</f>
         <v>1</v>
       </c>
     </row>
@@ -804,26 +798,26 @@
       <c r="G10" s="4">
         <v>9</v>
       </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="R10" s="6">
+        <v>1</v>
+      </c>
+      <c r="S10" s="6">
+        <v>1</v>
+      </c>
+      <c r="T10" s="6">
+        <v>1</v>
+      </c>
+      <c r="U10" s="6">
+        <v>1</v>
+      </c>
+      <c r="V10" s="6">
+        <v>1</v>
+      </c>
+      <c r="W10" s="6">
         <v>1</v>
       </c>
       <c r="AL10" t="b">
-        <f>SUM(H10:AK10)=B10</f>
+        <f>SUM(N10:AK10)=B10</f>
         <v>1</v>
       </c>
     </row>
@@ -917,27 +911,27 @@
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H14">
         <f>COUNT(H2:H13)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14:AK14" si="1">COUNT(I2:I13)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14">
         <f>COUNT(N2:N13)</f>
@@ -957,27 +951,27 @@
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W14">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X14">
         <f t="shared" si="1"/>
